--- a/output_data/charts/capacity-Marysville-1600000US3948160.xlsx
+++ b/output_data/charts/capacity-Marysville-1600000US3948160.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -886,22 +886,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13375</c:v>
+                  <c:v>13.375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46500</c:v>
+                  <c:v>46.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26480</c:v>
+                  <c:v>26.48</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>99480</c:v>
+                  <c:v>99.47999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>154300</c:v>
+                  <c:v>154.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75670</c:v>
+                  <c:v>75.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>13375</v>
+        <v>13.375</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>46500</v>
+        <v>46.5</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>26480</v>
+        <v>26.48</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>99480</v>
+        <v>99.47999999999999</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>154300</v>
+        <v>154.3</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>75670</v>
+        <v>75.67</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-Marysville-1600000US3948160.xlsx
+++ b/output_data/charts/capacity-Marysville-1600000US3948160.xlsx
@@ -901,7 +901,7 @@
                   <c:v>154.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75.67</c:v>
+                  <c:v>82.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>75.67</v>
+        <v>82.97</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
